--- a/csv/descripcion_variables.xlsx
+++ b/csv/descripcion_variables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -580,7 +580,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
